--- a/veri/Kadin_Erkek_Yas_Dagilimlari.xlsx
+++ b/veri/Kadin_Erkek_Yas_Dagilimlari.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUSENUR\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUSENUR\Documents\GitHub\muy665-bahar2025-takim-R_amam_soRmam_biR_daha\veri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FA50DF-127B-446D-9C99-259623BECB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAF9A1D-0B92-4917-A775-C712F6EC1C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A6048D78-C244-48EB-83DB-3DD76459F337}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{A6048D78-C244-48EB-83DB-3DD76459F337}"/>
   </bookViews>
   <sheets>
     <sheet name="Kadın Yaş Dağılımı" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="43">
   <si>
     <t>2001</t>
   </si>
@@ -169,7 +169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -179,6 +179,10 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="162"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -202,17 +206,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -265,6 +265,75 @@
                 <c:pt idx="0">
                   <c:v>Yas_16_29</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>Yas_16_29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Yas_16_29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Yas_16_29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Yas_16_29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Yas_16_29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Yas_16_29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Yas_16_29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Yas_16_29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Yas_16_29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Yas_16_29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Yas_16_29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Yas_16_29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Yas_16_29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Yas_16_29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Yas_16_29</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Yas_16_29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Yas_16_29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Yas_16_29</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Yas_16_29</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Yas_16_29</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Yas_16_29</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Yas_16_29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Yas_16_29</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -459,6 +528,75 @@
                 <c:pt idx="0">
                   <c:v>Yas_30_44</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>Yas_30_44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Yas_30_44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Yas_30_44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Yas_30_44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Yas_30_44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Yas_30_44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Yas_30_44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Yas_30_44</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Yas_30_44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Yas_30_44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Yas_30_44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Yas_30_44</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Yas_30_44</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Yas_30_44</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Yas_30_44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Yas_30_44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Yas_30_44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Yas_30_44</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Yas_30_44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Yas_30_44</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Yas_30_44</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Yas_30_44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Yas_30_44</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -651,6 +789,75 @@
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>Yas_45_54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Yas_45_54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Yas_45_54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Yas_45_54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Yas_45_54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Yas_45_54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Yas_45_54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Yas_45_54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Yas_45_54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Yas_45_54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Yas_45_54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Yas_45_54</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Yas_45_54</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Yas_45_54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Yas_45_54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Yas_45_54</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Yas_45_54</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Yas_45_54</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Yas_45_54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Yas_45_54</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Yas_45_54</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Yas_45_54</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Yas_45_54</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>Yas_45_54</c:v>
                 </c:pt>
               </c:strCache>
@@ -847,6 +1054,75 @@
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>Yas_55_60ustu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Yas_55_60ustu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Yas_55_60ustu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Yas_55_60ustu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Yas_55_60ustu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Yas_55_60ustu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Yas_55_60ustu</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Yas_55_60ustu</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Yas_55_60ustu</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Yas_55_60ustu</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Yas_55_60ustu</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Yas_55_60ustu</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Yas_55_60ustu</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Yas_55_60ustu</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Yas_55_60ustu</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Yas_55_60ustu</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Yas_55_60ustu</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Yas_55_60ustu</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Yas_55_60ustu</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Yas_55_60ustu</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Yas_55_60ustu</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Yas_55_60ustu</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Yas_55_60ustu</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>Yas_55_60ustu</c:v>
                 </c:pt>
               </c:strCache>
@@ -1071,7 +1347,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2141,8 +2417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180E5EBE-C84D-487E-AC1E-C51812FF2323}">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2162,54 +2438,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
@@ -2250,8 +2526,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
@@ -2292,8 +2570,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4">
@@ -2334,8 +2614,10 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5">
@@ -2376,8 +2658,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
@@ -2418,8 +2702,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7">
@@ -2460,8 +2746,10 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8">
@@ -2502,8 +2790,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9">
@@ -2544,8 +2834,10 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10">
@@ -2586,8 +2878,10 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11">
@@ -2628,8 +2922,10 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12">
@@ -2670,8 +2966,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13">
@@ -2712,8 +3010,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14">
@@ -2754,8 +3054,10 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15">
@@ -2796,8 +3098,10 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="C16">
@@ -2838,8 +3142,10 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17">
@@ -2880,8 +3186,10 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18">
@@ -2922,8 +3230,10 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="C19">
@@ -2964,8 +3274,10 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
         <v>18</v>
       </c>
       <c r="C20">
@@ -3006,8 +3318,10 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
         <v>19</v>
       </c>
       <c r="C21">
@@ -3048,8 +3362,10 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
         <v>20</v>
       </c>
       <c r="C22">
@@ -3090,8 +3406,10 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
         <v>21</v>
       </c>
       <c r="C23">
@@ -3132,8 +3450,10 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24">
@@ -3174,8 +3494,10 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25">
@@ -3216,10 +3538,10 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>0</v>
       </c>
       <c r="C26">
@@ -3260,8 +3582,10 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
         <v>1</v>
       </c>
       <c r="C27">
@@ -3302,8 +3626,10 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
         <v>2</v>
       </c>
       <c r="C28">
@@ -3344,8 +3670,10 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29">
@@ -3386,8 +3714,10 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="2" t="s">
+      <c r="A30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>4</v>
       </c>
       <c r="C30">
@@ -3428,8 +3758,10 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="2" t="s">
+      <c r="A31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31">
@@ -3470,8 +3802,10 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="2" t="s">
+      <c r="A32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
         <v>6</v>
       </c>
       <c r="C32">
@@ -3512,8 +3846,10 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="2" t="s">
+      <c r="A33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33">
@@ -3554,8 +3890,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="2" t="s">
+      <c r="A34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
         <v>8</v>
       </c>
       <c r="C34">
@@ -3596,8 +3934,10 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
         <v>9</v>
       </c>
       <c r="C35">
@@ -3638,8 +3978,10 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="2" t="s">
+      <c r="A36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
         <v>10</v>
       </c>
       <c r="C36">
@@ -3680,8 +4022,10 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="2" t="s">
+      <c r="A37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37">
@@ -3722,8 +4066,10 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="2" t="s">
+      <c r="A38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
         <v>12</v>
       </c>
       <c r="C38">
@@ -3764,8 +4110,10 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="2" t="s">
+      <c r="A39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
         <v>13</v>
       </c>
       <c r="C39">
@@ -3806,8 +4154,10 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="2" t="s">
+      <c r="A40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
         <v>14</v>
       </c>
       <c r="C40">
@@ -3848,8 +4198,10 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="2" t="s">
+      <c r="A41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
         <v>15</v>
       </c>
       <c r="C41">
@@ -3890,8 +4242,10 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="2" t="s">
+      <c r="A42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" t="s">
         <v>16</v>
       </c>
       <c r="C42">
@@ -3932,8 +4286,10 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="2" t="s">
+      <c r="A43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" t="s">
         <v>17</v>
       </c>
       <c r="C43">
@@ -3974,8 +4330,10 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="2" t="s">
+      <c r="A44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" t="s">
         <v>18</v>
       </c>
       <c r="C44">
@@ -4016,8 +4374,10 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="2" t="s">
+      <c r="A45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
         <v>19</v>
       </c>
       <c r="C45">
@@ -4058,8 +4418,10 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="2" t="s">
+      <c r="A46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" t="s">
         <v>20</v>
       </c>
       <c r="C46">
@@ -4100,8 +4462,10 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="2" t="s">
+      <c r="A47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
         <v>21</v>
       </c>
       <c r="C47">
@@ -4142,8 +4506,10 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="2" t="s">
+      <c r="A48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" t="s">
         <v>22</v>
       </c>
       <c r="C48">
@@ -4184,8 +4550,10 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="2" t="s">
+      <c r="A49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" t="s">
         <v>23</v>
       </c>
       <c r="C49">
@@ -4226,10 +4594,10 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" t="s">
         <v>0</v>
       </c>
       <c r="C50">
@@ -4270,8 +4638,10 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="2" t="s">
+      <c r="A51" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" t="s">
         <v>1</v>
       </c>
       <c r="C51">
@@ -4312,8 +4682,10 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="2" t="s">
+      <c r="A52" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" t="s">
         <v>2</v>
       </c>
       <c r="C52">
@@ -4354,8 +4726,10 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
-      <c r="B53" s="2" t="s">
+      <c r="A53" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" t="s">
         <v>3</v>
       </c>
       <c r="C53">
@@ -4396,8 +4770,10 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
-      <c r="B54" s="2" t="s">
+      <c r="A54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" t="s">
         <v>4</v>
       </c>
       <c r="C54">
@@ -4438,8 +4814,10 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
-      <c r="B55" s="2" t="s">
+      <c r="A55" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" t="s">
         <v>5</v>
       </c>
       <c r="C55">
@@ -4480,8 +4858,10 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="2" t="s">
+      <c r="A56" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" t="s">
         <v>6</v>
       </c>
       <c r="C56">
@@ -4522,8 +4902,10 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="2" t="s">
+      <c r="A57" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57">
@@ -4564,8 +4946,10 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="2" t="s">
+      <c r="A58" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" t="s">
         <v>8</v>
       </c>
       <c r="C58">
@@ -4606,8 +4990,10 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
-      <c r="B59" s="2" t="s">
+      <c r="A59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" t="s">
         <v>9</v>
       </c>
       <c r="C59">
@@ -4648,8 +5034,10 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="2" t="s">
+      <c r="A60" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" t="s">
         <v>10</v>
       </c>
       <c r="C60">
@@ -4690,8 +5078,10 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
-      <c r="B61" s="2" t="s">
+      <c r="A61" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" t="s">
         <v>11</v>
       </c>
       <c r="C61">
@@ -4732,8 +5122,10 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
-      <c r="B62" s="2" t="s">
+      <c r="A62" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" t="s">
         <v>12</v>
       </c>
       <c r="C62">
@@ -4774,8 +5166,10 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
-      <c r="B63" s="2" t="s">
+      <c r="A63" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" t="s">
         <v>13</v>
       </c>
       <c r="C63">
@@ -4816,8 +5210,10 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
-      <c r="B64" s="2" t="s">
+      <c r="A64" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" t="s">
         <v>14</v>
       </c>
       <c r="C64">
@@ -4858,8 +5254,10 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
-      <c r="B65" s="2" t="s">
+      <c r="A65" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" t="s">
         <v>15</v>
       </c>
       <c r="C65">
@@ -4900,8 +5298,10 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="3"/>
-      <c r="B66" s="2" t="s">
+      <c r="A66" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" t="s">
         <v>16</v>
       </c>
       <c r="C66">
@@ -4942,8 +5342,10 @@
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="3"/>
-      <c r="B67" s="2" t="s">
+      <c r="A67" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67" t="s">
         <v>17</v>
       </c>
       <c r="C67">
@@ -4984,8 +5386,10 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
-      <c r="B68" s="2" t="s">
+      <c r="A68" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B68" t="s">
         <v>18</v>
       </c>
       <c r="C68">
@@ -5026,8 +5430,10 @@
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="3"/>
-      <c r="B69" s="2" t="s">
+      <c r="A69" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" t="s">
         <v>19</v>
       </c>
       <c r="C69">
@@ -5068,8 +5474,10 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="3"/>
-      <c r="B70" s="2" t="s">
+      <c r="A70" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70" t="s">
         <v>20</v>
       </c>
       <c r="C70">
@@ -5110,8 +5518,10 @@
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="3"/>
-      <c r="B71" s="2" t="s">
+      <c r="A71" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B71" t="s">
         <v>21</v>
       </c>
       <c r="C71">
@@ -5152,8 +5562,10 @@
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="3"/>
-      <c r="B72" s="2" t="s">
+      <c r="A72" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B72" t="s">
         <v>22</v>
       </c>
       <c r="C72">
@@ -5194,8 +5606,10 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="3"/>
-      <c r="B73" s="2" t="s">
+      <c r="A73" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B73" t="s">
         <v>23</v>
       </c>
       <c r="C73">
@@ -5236,10 +5650,10 @@
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" t="s">
         <v>0</v>
       </c>
       <c r="C74">
@@ -5280,8 +5694,10 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="3"/>
-      <c r="B75" s="2" t="s">
+      <c r="A75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B75" t="s">
         <v>1</v>
       </c>
       <c r="C75">
@@ -5322,8 +5738,10 @@
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="3"/>
-      <c r="B76" s="2" t="s">
+      <c r="A76" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B76" t="s">
         <v>2</v>
       </c>
       <c r="C76">
@@ -5364,8 +5782,10 @@
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" s="3"/>
-      <c r="B77" s="2" t="s">
+      <c r="A77" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B77" t="s">
         <v>3</v>
       </c>
       <c r="C77">
@@ -5406,8 +5826,10 @@
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" s="3"/>
-      <c r="B78" s="2" t="s">
+      <c r="A78" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B78" t="s">
         <v>4</v>
       </c>
       <c r="C78">
@@ -5448,8 +5870,10 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" s="3"/>
-      <c r="B79" s="2" t="s">
+      <c r="A79" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B79" t="s">
         <v>5</v>
       </c>
       <c r="C79">
@@ -5490,8 +5914,10 @@
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" s="3"/>
-      <c r="B80" s="2" t="s">
+      <c r="A80" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B80" t="s">
         <v>6</v>
       </c>
       <c r="C80">
@@ -5532,8 +5958,10 @@
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" s="3"/>
-      <c r="B81" s="2" t="s">
+      <c r="A81" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81" t="s">
         <v>7</v>
       </c>
       <c r="C81">
@@ -5574,8 +6002,10 @@
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" s="3"/>
-      <c r="B82" s="2" t="s">
+      <c r="A82" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B82" t="s">
         <v>8</v>
       </c>
       <c r="C82">
@@ -5616,8 +6046,10 @@
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" s="3"/>
-      <c r="B83" s="2" t="s">
+      <c r="A83" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" t="s">
         <v>9</v>
       </c>
       <c r="C83">
@@ -5658,8 +6090,10 @@
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" s="3"/>
-      <c r="B84" s="2" t="s">
+      <c r="A84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" t="s">
         <v>10</v>
       </c>
       <c r="C84">
@@ -5700,8 +6134,10 @@
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" s="3"/>
-      <c r="B85" s="2" t="s">
+      <c r="A85" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" t="s">
         <v>11</v>
       </c>
       <c r="C85">
@@ -5742,8 +6178,10 @@
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" s="3"/>
-      <c r="B86" s="2" t="s">
+      <c r="A86" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" t="s">
         <v>12</v>
       </c>
       <c r="C86">
@@ -5784,8 +6222,10 @@
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87" s="3"/>
-      <c r="B87" s="2" t="s">
+      <c r="A87" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87" t="s">
         <v>13</v>
       </c>
       <c r="C87">
@@ -5826,8 +6266,10 @@
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88" s="3"/>
-      <c r="B88" s="2" t="s">
+      <c r="A88" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88" t="s">
         <v>14</v>
       </c>
       <c r="C88">
@@ -5868,8 +6310,10 @@
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A89" s="3"/>
-      <c r="B89" s="2" t="s">
+      <c r="A89" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B89" t="s">
         <v>15</v>
       </c>
       <c r="C89">
@@ -5910,8 +6354,10 @@
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A90" s="3"/>
-      <c r="B90" s="2" t="s">
+      <c r="A90" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B90" t="s">
         <v>16</v>
       </c>
       <c r="C90">
@@ -5952,8 +6398,10 @@
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A91" s="3"/>
-      <c r="B91" s="2" t="s">
+      <c r="A91" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91" t="s">
         <v>17</v>
       </c>
       <c r="C91">
@@ -5994,8 +6442,10 @@
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A92" s="3"/>
-      <c r="B92" s="2" t="s">
+      <c r="A92" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B92" t="s">
         <v>18</v>
       </c>
       <c r="C92">
@@ -6036,8 +6486,10 @@
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A93" s="3"/>
-      <c r="B93" s="2" t="s">
+      <c r="A93" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B93" t="s">
         <v>19</v>
       </c>
       <c r="C93">
@@ -6078,8 +6530,10 @@
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A94" s="3"/>
-      <c r="B94" s="2" t="s">
+      <c r="A94" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B94" t="s">
         <v>20</v>
       </c>
       <c r="C94">
@@ -6120,8 +6574,10 @@
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A95" s="3"/>
-      <c r="B95" s="2" t="s">
+      <c r="A95" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" t="s">
         <v>21</v>
       </c>
       <c r="C95">
@@ -6162,8 +6618,10 @@
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A96" s="3"/>
-      <c r="B96" s="2" t="s">
+      <c r="A96" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B96" t="s">
         <v>22</v>
       </c>
       <c r="C96">
@@ -6204,8 +6662,10 @@
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A97" s="3"/>
-      <c r="B97" s="2" t="s">
+      <c r="A97" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97" t="s">
         <v>23</v>
       </c>
       <c r="C97">
@@ -6247,12 +6707,7 @@
     </row>
     <row r="98" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A26:A49"/>
-    <mergeCell ref="A74:A97"/>
-    <mergeCell ref="A50:A73"/>
-  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6262,8 +6717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99E99D6-B1E8-4DFD-96F0-1796B7E6A3F8}">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7294,4102 +7749,4289 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="1">
         <v>2001</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="1">
         <v>3269</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1">
         <v>3312</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="1">
         <v>1954</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="1">
         <v>1125</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="1">
         <v>840</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="1">
         <v>2262</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="1">
         <v>4732</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="1">
         <v>1127</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="1">
         <v>412</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="1">
         <v>2475</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="1">
         <v>527</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="1">
         <v>4463</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="1">
         <v>3300</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>3145</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="1">
         <v>2003</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="1">
         <v>1162</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="1">
         <v>849</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="1">
         <v>2237</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="1">
         <v>4684</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="1">
         <v>1237</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="1">
         <v>469</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="1">
         <v>2484</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="1">
         <v>556</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="1">
         <v>4640</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <v>3215</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>2938</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="1">
         <v>1902</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
         <v>1155</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="1">
         <v>829</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="1">
         <v>2078</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="1">
         <v>4442</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="1">
         <v>1227</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="1">
         <v>421</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="1">
         <v>2281</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="1">
         <v>571</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="1">
         <v>4020</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1">
         <v>3160</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>2863</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="1">
         <v>1734</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
         <v>1217</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="1">
         <v>707</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="1">
         <v>1859</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="1">
         <v>4409</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="1">
         <v>1183</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="1">
         <v>384</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="1">
         <v>2027</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="1">
         <v>532</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="1">
         <v>4099</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <v>2946</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>2997</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="1">
         <v>1666</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>1218</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="1">
         <v>632</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="1">
         <v>2212</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="1">
         <v>4523</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="1">
         <v>1218</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="1">
         <v>401</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="1">
         <v>2159</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="1">
         <v>516</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="1">
         <v>4439</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
         <v>2998</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>3000</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="1">
         <v>1606</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <v>1174</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="1">
         <v>664</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="1">
         <v>2165</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="1">
         <v>4303</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="1">
         <v>1246</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="1">
         <v>393</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="1">
         <v>1970</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="1">
         <v>545</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="1">
         <v>4250</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>3028</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>2874</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <v>1578</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <v>1146</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="1">
         <v>620</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="1">
         <v>2089</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="1">
         <v>4098</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="1">
         <v>1243</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="1">
         <v>368</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="1">
         <v>1966</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="1">
         <v>533</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="1">
         <v>4193</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="1">
         <v>3144</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <v>2896</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="1">
         <v>1518</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="1">
         <v>1138</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="1">
         <v>605</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="1">
         <v>2152</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="1">
         <v>4194</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="1">
         <v>1206</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="1">
         <v>360</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="1">
         <v>1984</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="1">
         <v>502</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="1">
         <v>3928</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="1">
         <v>3376</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <v>3060</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="1">
         <v>1616</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="1">
         <v>1218</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="1">
         <v>592</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="1">
         <v>2187</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="1">
         <v>4256</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="1">
         <v>1361</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="1">
         <v>388</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="1">
         <v>2061</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="1">
         <v>601</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="1">
         <v>4161</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="1">
         <v>3443</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
         <v>2951</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="1">
         <v>1598</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="1">
         <v>1208</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="1">
         <v>574</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="1">
         <v>2407</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="1">
         <v>4252</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="1">
         <v>1361</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="1">
         <v>388</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="1">
         <v>1979</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="1">
         <v>548</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="1">
         <v>4013</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="1">
         <v>3548</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="1">
         <v>3043</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="1">
         <v>1538</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="1">
         <v>1136</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="1">
         <v>558</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="1">
         <v>2261</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="1">
         <v>3995</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="1">
         <v>1252</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="1">
         <v>361</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="1">
         <v>1835</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="1">
         <v>519</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="1">
         <v>4083</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="1">
         <v>3454</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="1">
         <v>3192</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="1">
         <v>1438</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="1">
         <v>1185</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="1">
         <v>537</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="1">
         <v>2199</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="1">
         <v>3923</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="1">
         <v>1439</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="1">
         <v>363</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="1">
         <v>1827</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="1">
         <v>529</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="1">
         <v>3959</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="1">
         <v>3493</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="1">
         <v>3139</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="1">
         <v>1434</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="1">
         <v>1103</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="1">
         <v>548</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="1">
         <v>2377</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="1">
         <v>3808</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="1">
         <v>1649</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="1">
         <v>392</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="1">
         <v>1778</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="1">
         <v>583</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="1">
         <v>3859</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="1">
         <v>3500</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="1">
         <v>3039</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="1">
         <v>1408</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="1">
         <v>1176</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="1">
         <v>530</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="1">
         <v>2339</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="1">
         <v>3836</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="1">
         <v>1702</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="1">
         <v>403</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="1">
         <v>1882</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="1">
         <v>581</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="1">
         <v>3989</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="1">
         <v>3506</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="1">
         <v>2862</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="1">
         <v>1352</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="1">
         <v>1220</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="1">
         <v>544</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="1">
         <v>2234</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="1">
         <v>3757</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="1">
         <v>1705</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="1">
         <v>426</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="1">
         <v>1826</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="1">
         <v>588</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="1">
         <v>3789</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="1">
         <v>3098</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="1">
         <v>2635</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="1">
         <v>1199</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="1">
         <v>1065</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="1">
         <v>454</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="1">
         <v>2208</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="1">
         <v>3466</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="1">
         <v>1446</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="1">
         <v>370</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="1">
         <v>1669</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="1">
         <v>552</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="1">
         <v>3448</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="1">
         <v>3089</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="1">
         <v>2528</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="1">
         <v>1123</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="1">
         <v>1018</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="1">
         <v>479</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="1">
         <v>2108</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="1">
         <v>3174</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="1">
         <v>1527</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="1">
         <v>373</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="1">
         <v>1504</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="1">
         <v>552</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="1">
         <v>3453</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="1">
         <v>3250</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="1">
         <v>2557</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="1">
         <v>1246</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="1">
         <v>1167</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="1">
         <v>509</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="1">
         <v>2219</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="1">
         <v>3331</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="1">
         <v>1720</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="1">
         <v>397</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="1">
         <v>1540</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="1">
         <v>578</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="1">
         <v>3578</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="1">
         <v>3511</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="1">
         <v>2649</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="1">
         <v>1220</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="1">
         <v>1167</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="1">
         <v>506</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="1">
         <v>2208</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="1">
         <v>3382</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="1">
         <v>1922</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="1">
         <v>445</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="1">
         <v>1367</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="1">
         <v>662</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="1">
         <v>3590</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="1">
         <v>2829</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="1">
         <v>2249</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="1">
         <v>993</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="1">
         <v>928</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="1">
         <v>452</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="1">
         <v>1876</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="1">
         <v>2831</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="1">
         <v>1556</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="1">
         <v>351</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="1">
         <v>1326</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="1">
         <v>591</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="1">
         <v>2846</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="1">
         <v>3624</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="1">
         <v>2757</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="1">
         <v>1278</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="1">
         <v>1186</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="1">
         <v>511</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="1">
         <v>2265</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="1">
         <v>3389</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="1">
         <v>2097</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="1">
         <v>414</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="1">
         <v>1544</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="1">
         <v>703</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="1">
         <v>3357</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="1">
         <v>3550</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="1">
         <v>2863</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="1">
         <v>1285</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="1">
         <v>1233</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="1">
         <v>538</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="1">
         <v>2338</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="1">
         <v>3618</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="1">
         <v>2230</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="1">
         <v>466</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="1">
         <v>1530</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="1">
         <v>718</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="1">
         <v>3252</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4" t="s">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="1">
         <v>3282</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="1">
         <v>2751</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="1">
         <v>1353</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="1">
         <v>1221</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="1">
         <v>535</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="1">
         <v>2452</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="1">
         <v>3623</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="1">
         <v>2036</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="1">
         <v>471</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="1">
         <v>1498</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="1">
         <v>575</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="1">
         <v>3255</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="1">
         <v>3627</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="1">
         <v>2793</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="1">
         <v>1464</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="1">
         <v>1289</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="1">
         <v>561</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="1">
         <v>2565</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="1">
         <v>3703</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="1">
         <v>2304</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="1">
         <v>473</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="1">
         <v>1675</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="1">
         <v>696</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="1">
         <v>3336</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="1">
         <v>6537</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="1">
         <v>6151</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="1">
         <v>4197</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="1">
         <v>3733</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="1">
         <v>3225</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="1">
         <v>4840</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="1">
         <v>8155</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="1">
         <v>3570</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="1">
         <v>2909</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="1">
         <v>4262</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="1">
         <v>3085</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="1">
         <v>8660</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="1">
         <v>6649</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="1">
         <v>6058</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="1">
         <v>4336</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="1">
         <v>3800</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="1">
         <v>3311</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="1">
         <v>4869</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="1">
         <v>8031</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="1">
         <v>3726</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="1">
         <v>2963</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="1">
         <v>4368</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="1">
         <v>3065</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="1">
         <v>9005</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4" t="s">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="1">
         <v>6409</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="1">
         <v>5859</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="1">
         <v>4391</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="1">
         <v>3901</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="1">
         <v>3275</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="1">
         <v>4898</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="1">
         <v>7779</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="1">
         <v>3683</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="1">
         <v>2922</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="1">
         <v>4190</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="1">
         <v>3132</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="1">
         <v>8484</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4" t="s">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="1">
         <v>6358</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="1">
         <v>5768</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="1">
         <v>4229</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="1">
         <v>3899</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="1">
         <v>3276</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="1">
         <v>4811</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="1">
         <v>7659</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="1">
         <v>3626</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="1">
         <v>2891</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="1">
         <v>4025</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="1">
         <v>3093</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="1">
         <v>8729</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4" t="s">
+      <c r="A30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="1">
         <v>6373</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="1">
         <v>5972</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="1">
         <v>4106</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="1">
         <v>3908</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="1">
         <v>3193</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="1">
         <v>5051</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="1">
         <v>8004</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="1">
         <v>3669</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="1">
         <v>2931</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="1">
         <v>4062</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30" s="1">
         <v>3056</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="1">
         <v>9454</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4" t="s">
+      <c r="A31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="1">
         <v>6486</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="1">
         <v>6070</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="1">
         <v>3928</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="1">
         <v>3904</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="1">
         <v>3138</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="1">
         <v>5104</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="1">
         <v>8049</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="1">
         <v>3550</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="1">
         <v>2867</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="1">
         <v>3870</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31" s="1">
         <v>3121</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="1">
         <v>9402</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="1">
         <v>6729</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="1">
         <v>6159</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="1">
         <v>4080</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="1">
         <v>3950</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="1">
         <v>3178</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="1">
         <v>5212</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="1">
         <v>8139</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="1">
         <v>3619</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="1">
         <v>2899</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="1">
         <v>3917</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32" s="1">
         <v>3153</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="1">
         <v>9396</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4" t="s">
+      <c r="A33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="1">
         <v>7050</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="1">
         <v>6307</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="1">
         <v>4185</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="1">
         <v>4107</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="1">
         <v>3217</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="1">
         <v>5568</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="1">
         <v>8642</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="1">
         <v>3660</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="1">
         <v>2912</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33" s="1">
         <v>4028</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M33" s="1">
         <v>3155</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N33" s="1">
         <v>9633</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4" t="s">
+      <c r="A34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="1">
         <v>7832</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="1">
         <v>7028</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="1">
         <v>4470</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="1">
         <v>4382</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="1">
         <v>3370</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="1">
         <v>6022</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="1">
         <v>9607</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="1">
         <v>3864</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="1">
         <v>2966</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34" s="1">
         <v>4317</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M34" s="1">
         <v>3236</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N34" s="1">
         <v>11226</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="1">
         <v>8072</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="1">
         <v>7172</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="1">
         <v>4513</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="1">
         <v>4496</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="1">
         <v>3349</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="1">
         <v>6358</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="1">
         <v>9913</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="1">
         <v>3933</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="1">
         <v>2971</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="1">
         <v>4392</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M35" s="1">
         <v>3296</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N35" s="1">
         <v>11358</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4" t="s">
+      <c r="A36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="1">
         <v>8335</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="1">
         <v>7210</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="1">
         <v>4472</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="1">
         <v>4585</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="1">
         <v>3351</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="1">
         <v>6516</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="1">
         <v>9870</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="1">
         <v>3873</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="1">
         <v>2987</v>
       </c>
-      <c r="L36" s="4">
+      <c r="L36" s="1">
         <v>4248</v>
       </c>
-      <c r="M36" s="4">
+      <c r="M36" s="1">
         <v>3199</v>
       </c>
-      <c r="N36" s="4">
+      <c r="N36" s="1">
         <v>11655</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="1">
         <v>8458</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="1">
         <v>7430</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="1">
         <v>4486</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="1">
         <v>4399</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="1">
         <v>3443</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="1">
         <v>6659</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="1">
         <v>10166</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="1">
         <v>4025</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="1">
         <v>3005</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L37" s="1">
         <v>4361</v>
       </c>
-      <c r="M37" s="4">
+      <c r="M37" s="1">
         <v>3283</v>
       </c>
-      <c r="N37" s="4">
+      <c r="N37" s="1">
         <v>12223</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4" t="s">
+      <c r="A38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="1">
         <v>8734</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="1">
         <v>7581</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="1">
         <v>4477</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="1">
         <v>4526</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="1">
         <v>3447</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="1">
         <v>6968</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="1">
         <v>10120</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="1">
         <v>4157</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="1">
         <v>3017</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L38" s="1">
         <v>4405</v>
       </c>
-      <c r="M38" s="4">
+      <c r="M38" s="1">
         <v>3337</v>
       </c>
-      <c r="N38" s="4">
+      <c r="N38" s="1">
         <v>12492</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4" t="s">
+      <c r="A39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="1">
         <v>9257</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="1">
         <v>7691</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="1">
         <v>4690</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="1">
         <v>4791</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="1">
         <v>3457</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="1">
         <v>7209</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="1">
         <v>10464</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="1">
         <v>4275</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="1">
         <v>3042</v>
       </c>
-      <c r="L39" s="4">
+      <c r="L39" s="1">
         <v>4542</v>
       </c>
-      <c r="M39" s="4">
+      <c r="M39" s="1">
         <v>3393</v>
       </c>
-      <c r="N39" s="4">
+      <c r="N39" s="1">
         <v>13267</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4" t="s">
+      <c r="A40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="1">
         <v>9470</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="1">
         <v>7664</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="1">
         <v>4833</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="1">
         <v>4867</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="1">
         <v>3585</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="1">
         <v>7312</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="1">
         <v>11063</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="1">
         <v>4363</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K40" s="1">
         <v>3053</v>
       </c>
-      <c r="L40" s="4">
+      <c r="L40" s="1">
         <v>4706</v>
       </c>
-      <c r="M40" s="4">
+      <c r="M40" s="1">
         <v>3343</v>
       </c>
-      <c r="N40" s="4">
+      <c r="N40" s="1">
         <v>13318</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="1">
         <v>9179</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="1">
         <v>7681</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="1">
         <v>4704</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="1">
         <v>4917</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="1">
         <v>3503</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="1">
         <v>7453</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="1">
         <v>10903</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41" s="1">
         <v>4163</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41" s="1">
         <v>3059</v>
       </c>
-      <c r="L41" s="4">
+      <c r="L41" s="1">
         <v>4719</v>
       </c>
-      <c r="M41" s="4">
+      <c r="M41" s="1">
         <v>3403</v>
       </c>
-      <c r="N41" s="4">
+      <c r="N41" s="1">
         <v>13082</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4" t="s">
+      <c r="A42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="1">
         <v>9354</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="1">
         <v>7931</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="1">
         <v>4833</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="1">
         <v>4951</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="1">
         <v>3605</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="1">
         <v>7686</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42" s="1">
         <v>10971</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J42" s="1">
         <v>4366</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K42" s="1">
         <v>3001</v>
       </c>
-      <c r="L42" s="4">
+      <c r="L42" s="1">
         <v>4634</v>
       </c>
-      <c r="M42" s="4">
+      <c r="M42" s="1">
         <v>3347</v>
       </c>
-      <c r="N42" s="4">
+      <c r="N42" s="1">
         <v>13693</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4" t="s">
+      <c r="A43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="1">
         <v>10410</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="1">
         <v>8369</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="1">
         <v>5163</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="1">
         <v>5308</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="1">
         <v>3652</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="1">
         <v>8108</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="1">
         <v>11856</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43" s="1">
         <v>4788</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43" s="1">
         <v>3177</v>
       </c>
-      <c r="L43" s="4">
+      <c r="L43" s="1">
         <v>4966</v>
       </c>
-      <c r="M43" s="4">
+      <c r="M43" s="1">
         <v>3513</v>
       </c>
-      <c r="N43" s="4">
+      <c r="N43" s="1">
         <v>14428</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4" t="s">
+      <c r="A44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="1">
         <v>11352</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="1">
         <v>9123</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="1">
         <v>5405</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="1">
         <v>5580</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="1">
         <v>3778</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="1">
         <v>8710</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="1">
         <v>12708</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J44" s="1">
         <v>5110</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K44" s="1">
         <v>3218</v>
       </c>
-      <c r="L44" s="4">
+      <c r="L44" s="1">
         <v>4992</v>
       </c>
-      <c r="M44" s="4">
+      <c r="M44" s="1">
         <v>3784</v>
       </c>
-      <c r="N44" s="4">
+      <c r="N44" s="1">
         <v>15252</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="4" t="s">
+      <c r="A45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="1">
         <v>10455</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="1">
         <v>8332</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="1">
         <v>5014</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="1">
         <v>5072</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="1">
         <v>3748</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="1">
         <v>8184</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="1">
         <v>11258</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45" s="1">
         <v>4973</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K45" s="1">
         <v>3093</v>
       </c>
-      <c r="L45" s="4">
+      <c r="L45" s="1">
         <v>4995</v>
       </c>
-      <c r="M45" s="4">
+      <c r="M45" s="1">
         <v>3695</v>
       </c>
-      <c r="N45" s="4">
+      <c r="N45" s="1">
         <v>13375</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4" t="s">
+      <c r="A46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="1">
         <v>12476</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="1">
         <v>10207</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="1">
         <v>5836</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="1">
         <v>5753</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="1">
         <v>4050</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="1">
         <v>9699</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I46" s="1">
         <v>13351</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J46" s="1">
         <v>5753</v>
       </c>
-      <c r="K46" s="4">
+      <c r="K46" s="1">
         <v>3305</v>
       </c>
-      <c r="L46" s="4">
+      <c r="L46" s="1">
         <v>5895</v>
       </c>
-      <c r="M46" s="4">
+      <c r="M46" s="1">
         <v>4079</v>
       </c>
-      <c r="N46" s="4">
+      <c r="N46" s="1">
         <v>16244</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="4" t="s">
+      <c r="A47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="1">
         <v>12794</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="1">
         <v>10526</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="1">
         <v>6115</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="1">
         <v>6066</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="1">
         <v>4194</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="1">
         <v>9819</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I47" s="1">
         <v>13848</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J47" s="1">
         <v>6453</v>
       </c>
-      <c r="K47" s="4">
+      <c r="K47" s="1">
         <v>3503</v>
       </c>
-      <c r="L47" s="4">
+      <c r="L47" s="1">
         <v>5819</v>
       </c>
-      <c r="M47" s="4">
+      <c r="M47" s="1">
         <v>4179</v>
       </c>
-      <c r="N47" s="4">
+      <c r="N47" s="1">
         <v>16386</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="4" t="s">
+      <c r="A48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="1">
         <v>11703</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="1">
         <v>10197</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="1">
         <v>6062</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="1">
         <v>6031</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="1">
         <v>4111</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="1">
         <v>9902</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I48" s="1">
         <v>13626</v>
       </c>
-      <c r="J48" s="4">
+      <c r="J48" s="1">
         <v>5920</v>
       </c>
-      <c r="K48" s="4">
+      <c r="K48" s="1">
         <v>3439</v>
       </c>
-      <c r="L48" s="4">
+      <c r="L48" s="1">
         <v>5818</v>
       </c>
-      <c r="M48" s="4">
+      <c r="M48" s="1">
         <v>3951</v>
       </c>
-      <c r="N48" s="4">
+      <c r="N48" s="1">
         <v>15592</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="4" t="s">
+      <c r="A49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="1">
         <v>13169</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="1">
         <v>10835</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="1">
         <v>6191</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="1">
         <v>6169</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="1">
         <v>4125</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="1">
         <v>10351</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I49" s="1">
         <v>14236</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J49" s="1">
         <v>6512</v>
       </c>
-      <c r="K49" s="4">
+      <c r="K49" s="1">
         <v>3491</v>
       </c>
-      <c r="L49" s="4">
+      <c r="L49" s="1">
         <v>6095</v>
       </c>
-      <c r="M49" s="4">
+      <c r="M49" s="1">
         <v>4210</v>
       </c>
-      <c r="N49" s="4">
+      <c r="N49" s="1">
         <v>16294</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="1">
         <v>1865</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="1">
         <v>1702</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="1">
         <v>1500</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="1">
         <v>1413</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="1">
         <v>1298</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="1">
         <v>1579</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I50" s="1">
         <v>2157</v>
       </c>
-      <c r="J50" s="4">
+      <c r="J50" s="1">
         <v>1321</v>
       </c>
-      <c r="K50" s="4">
+      <c r="K50" s="1">
         <v>1259</v>
       </c>
-      <c r="L50" s="4">
+      <c r="L50" s="1">
         <v>1375</v>
       </c>
-      <c r="M50" s="4">
+      <c r="M50" s="1">
         <v>1263</v>
       </c>
-      <c r="N50" s="4">
+      <c r="N50" s="1">
         <v>2348</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="4" t="s">
+      <c r="A51" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="1">
         <v>1898</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="1">
         <v>1797</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="1">
         <v>1547</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="1">
         <v>1415</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="1">
         <v>1300</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="1">
         <v>1641</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I51" s="1">
         <v>2156</v>
       </c>
-      <c r="J51" s="4">
+      <c r="J51" s="1">
         <v>1348</v>
       </c>
-      <c r="K51" s="4">
+      <c r="K51" s="1">
         <v>1246</v>
       </c>
-      <c r="L51" s="4">
+      <c r="L51" s="1">
         <v>1394</v>
       </c>
-      <c r="M51" s="4">
+      <c r="M51" s="1">
         <v>1258</v>
       </c>
-      <c r="N51" s="4">
+      <c r="N51" s="1">
         <v>2458</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="4" t="s">
+      <c r="A52" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="1">
         <v>1917</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="1">
         <v>1708</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="1">
         <v>1564</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="1">
         <v>1472</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="1">
         <v>1315</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="1">
         <v>1668</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I52" s="1">
         <v>2210</v>
       </c>
-      <c r="J52" s="4">
+      <c r="J52" s="1">
         <v>1401</v>
       </c>
-      <c r="K52" s="4">
+      <c r="K52" s="1">
         <v>1247</v>
       </c>
-      <c r="L52" s="4">
+      <c r="L52" s="1">
         <v>1435</v>
       </c>
-      <c r="M52" s="4">
+      <c r="M52" s="1">
         <v>1288</v>
       </c>
-      <c r="N52" s="4">
+      <c r="N52" s="1">
         <v>2375</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
-      <c r="B53" s="4" t="s">
+      <c r="A53" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="1">
         <v>1920</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="1">
         <v>1844</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="1">
         <v>1549</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="1">
         <v>1462</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="1">
         <v>1343</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="1">
         <v>1618</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I53" s="1">
         <v>2225</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J53" s="1">
         <v>1373</v>
       </c>
-      <c r="K53" s="4">
+      <c r="K53" s="1">
         <v>1254</v>
       </c>
-      <c r="L53" s="4">
+      <c r="L53" s="1">
         <v>1464</v>
       </c>
-      <c r="M53" s="4">
+      <c r="M53" s="1">
         <v>1261</v>
       </c>
-      <c r="N53" s="4">
+      <c r="N53" s="1">
         <v>2412</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
-      <c r="B54" s="4" t="s">
+      <c r="A54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="1">
         <v>1956</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="1">
         <v>1862</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="1">
         <v>1515</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="1">
         <v>1491</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="1">
         <v>1312</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="1">
         <v>1664</v>
       </c>
-      <c r="I54" s="4">
+      <c r="I54" s="1">
         <v>2256</v>
       </c>
-      <c r="J54" s="4">
+      <c r="J54" s="1">
         <v>1396</v>
       </c>
-      <c r="K54" s="4">
+      <c r="K54" s="1">
         <v>1252</v>
       </c>
-      <c r="L54" s="4">
+      <c r="L54" s="1">
         <v>1430</v>
       </c>
-      <c r="M54" s="4">
+      <c r="M54" s="1">
         <v>1301</v>
       </c>
-      <c r="N54" s="4">
+      <c r="N54" s="1">
         <v>2637</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
-      <c r="B55" s="4" t="s">
+      <c r="A55" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="1">
         <v>1994</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="1">
         <v>1916</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="1">
         <v>1470</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="1">
         <v>1478</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="1">
         <v>1304</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="1">
         <v>1702</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I55" s="1">
         <v>2361</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J55" s="1">
         <v>1375</v>
       </c>
-      <c r="K55" s="4">
+      <c r="K55" s="1">
         <v>1252</v>
       </c>
-      <c r="L55" s="4">
+      <c r="L55" s="1">
         <v>1427</v>
       </c>
-      <c r="M55" s="4">
+      <c r="M55" s="1">
         <v>1277</v>
       </c>
-      <c r="N55" s="4">
+      <c r="N55" s="1">
         <v>2591</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="4" t="s">
+      <c r="A56" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="1">
         <v>2008</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="1">
         <v>1884</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="1">
         <v>1511</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="1">
         <v>1506</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="1">
         <v>1325</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="1">
         <v>1729</v>
       </c>
-      <c r="I56" s="4">
+      <c r="I56" s="1">
         <v>2386</v>
       </c>
-      <c r="J56" s="4">
+      <c r="J56" s="1">
         <v>1380</v>
       </c>
-      <c r="K56" s="4">
+      <c r="K56" s="1">
         <v>1255</v>
       </c>
-      <c r="L56" s="4">
+      <c r="L56" s="1">
         <v>1438</v>
       </c>
-      <c r="M56" s="4">
+      <c r="M56" s="1">
         <v>1297</v>
       </c>
-      <c r="N56" s="4">
+      <c r="N56" s="1">
         <v>2613</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="4" t="s">
+      <c r="A57" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="1">
         <v>2036</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="1">
         <v>1922</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="1">
         <v>1535</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="1">
         <v>1523</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="1">
         <v>1326</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="1">
         <v>1749</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I57" s="1">
         <v>2503</v>
       </c>
-      <c r="J57" s="4">
+      <c r="J57" s="1">
         <v>1389</v>
       </c>
-      <c r="K57" s="4">
+      <c r="K57" s="1">
         <v>1250</v>
       </c>
-      <c r="L57" s="4">
+      <c r="L57" s="1">
         <v>1423</v>
       </c>
-      <c r="M57" s="4">
+      <c r="M57" s="1">
         <v>1273</v>
       </c>
-      <c r="N57" s="4">
+      <c r="N57" s="1">
         <v>2614</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="4" t="s">
+      <c r="A58" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="1">
         <v>2207</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="1">
         <v>2066</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="1">
         <v>1581</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="1">
         <v>1595</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="1">
         <v>1341</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58" s="1">
         <v>1892</v>
       </c>
-      <c r="I58" s="4">
+      <c r="I58" s="1">
         <v>2669</v>
       </c>
-      <c r="J58" s="4">
+      <c r="J58" s="1">
         <v>1428</v>
       </c>
-      <c r="K58" s="4">
+      <c r="K58" s="1">
         <v>1277</v>
       </c>
-      <c r="L58" s="4">
+      <c r="L58" s="1">
         <v>1452</v>
       </c>
-      <c r="M58" s="4">
+      <c r="M58" s="1">
         <v>1313</v>
       </c>
-      <c r="N58" s="4">
+      <c r="N58" s="1">
         <v>2953</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
-      <c r="B59" s="4" t="s">
+      <c r="A59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="1">
         <v>2335</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="1">
         <v>2147</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="1">
         <v>1526</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="1">
         <v>1591</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="1">
         <v>1342</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="1">
         <v>1936</v>
       </c>
-      <c r="I59" s="4">
+      <c r="I59" s="1">
         <v>2849</v>
       </c>
-      <c r="J59" s="4">
+      <c r="J59" s="1">
         <v>1428</v>
       </c>
-      <c r="K59" s="4">
+      <c r="K59" s="1">
         <v>1269</v>
       </c>
-      <c r="L59" s="4">
+      <c r="L59" s="1">
         <v>1500</v>
       </c>
-      <c r="M59" s="4">
+      <c r="M59" s="1">
         <v>1317</v>
       </c>
-      <c r="N59" s="4">
+      <c r="N59" s="1">
         <v>3070</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="4" t="s">
+      <c r="A60" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="1">
         <v>2306</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="1">
         <v>2118</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="1">
         <v>1510</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="1">
         <v>1589</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="1">
         <v>1342</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H60" s="1">
         <v>1897</v>
       </c>
-      <c r="I60" s="4">
+      <c r="I60" s="1">
         <v>2789</v>
       </c>
-      <c r="J60" s="4">
+      <c r="J60" s="1">
         <v>1435</v>
       </c>
-      <c r="K60" s="4">
+      <c r="K60" s="1">
         <v>1252</v>
       </c>
-      <c r="L60" s="4">
+      <c r="L60" s="1">
         <v>1461</v>
       </c>
-      <c r="M60" s="4">
+      <c r="M60" s="1">
         <v>1289</v>
       </c>
-      <c r="N60" s="4">
+      <c r="N60" s="1">
         <v>3052</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
-      <c r="B61" s="4" t="s">
+      <c r="A61" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="1">
         <v>2357</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="1">
         <v>2146</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="1">
         <v>1537</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="1">
         <v>1600</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="1">
         <v>1347</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H61" s="1">
         <v>1994</v>
       </c>
-      <c r="I61" s="4">
+      <c r="I61" s="1">
         <v>2757</v>
       </c>
-      <c r="J61" s="4">
+      <c r="J61" s="1">
         <v>1410</v>
       </c>
-      <c r="K61" s="4">
+      <c r="K61" s="1">
         <v>1257</v>
       </c>
-      <c r="L61" s="4">
+      <c r="L61" s="1">
         <v>1506</v>
       </c>
-      <c r="M61" s="4">
+      <c r="M61" s="1">
         <v>1321</v>
       </c>
-      <c r="N61" s="4">
+      <c r="N61" s="1">
         <v>3166</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
-      <c r="B62" s="4" t="s">
+      <c r="A62" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="1">
         <v>2402</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="1">
         <v>2195</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="1">
         <v>1536</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="1">
         <v>1626</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62" s="1">
         <v>1344</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H62" s="1">
         <v>2022</v>
       </c>
-      <c r="I62" s="4">
+      <c r="I62" s="1">
         <v>2758</v>
       </c>
-      <c r="J62" s="4">
+      <c r="J62" s="1">
         <v>1438</v>
       </c>
-      <c r="K62" s="4">
+      <c r="K62" s="1">
         <v>1286</v>
       </c>
-      <c r="L62" s="4">
+      <c r="L62" s="1">
         <v>1456</v>
       </c>
-      <c r="M62" s="4">
+      <c r="M62" s="1">
         <v>1307</v>
       </c>
-      <c r="N62" s="4">
+      <c r="N62" s="1">
         <v>3196</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
-      <c r="B63" s="4" t="s">
+      <c r="A63" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="1">
         <v>2492</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="1">
         <v>2292</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="1">
         <v>1558</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="1">
         <v>1677</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="1">
         <v>1382</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="1">
         <v>2055</v>
       </c>
-      <c r="I63" s="4">
+      <c r="I63" s="1">
         <v>2899</v>
       </c>
-      <c r="J63" s="4">
+      <c r="J63" s="1">
         <v>1450</v>
       </c>
-      <c r="K63" s="4">
+      <c r="K63" s="1">
         <v>1269</v>
       </c>
-      <c r="L63" s="4">
+      <c r="L63" s="1">
         <v>1514</v>
       </c>
-      <c r="M63" s="4">
+      <c r="M63" s="1">
         <v>1328</v>
       </c>
-      <c r="N63" s="4">
+      <c r="N63" s="1">
         <v>3385</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
-      <c r="B64" s="4" t="s">
+      <c r="A64" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="1">
         <v>2530</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="1">
         <v>2204</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="1">
         <v>1579</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="1">
         <v>1690</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="1">
         <v>1377</v>
       </c>
-      <c r="H64" s="4">
+      <c r="H64" s="1">
         <v>2183</v>
       </c>
-      <c r="I64" s="4">
+      <c r="I64" s="1">
         <v>3067</v>
       </c>
-      <c r="J64" s="4">
+      <c r="J64" s="1">
         <v>1455</v>
       </c>
-      <c r="K64" s="4">
+      <c r="K64" s="1">
         <v>1285</v>
       </c>
-      <c r="L64" s="4">
+      <c r="L64" s="1">
         <v>1518</v>
       </c>
-      <c r="M64" s="4">
+      <c r="M64" s="1">
         <v>1314</v>
       </c>
-      <c r="N64" s="4">
+      <c r="N64" s="1">
         <v>3365</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
-      <c r="B65" s="4" t="s">
+      <c r="A65" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="1">
         <v>2519</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="1">
         <v>2255</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="1">
         <v>1570</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="1">
         <v>1667</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="1">
         <v>1366</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H65" s="1">
         <v>2181</v>
       </c>
-      <c r="I65" s="4">
+      <c r="I65" s="1">
         <v>3023</v>
       </c>
-      <c r="J65" s="4">
+      <c r="J65" s="1">
         <v>1458</v>
       </c>
-      <c r="K65" s="4">
+      <c r="K65" s="1">
         <v>1273</v>
       </c>
-      <c r="L65" s="4">
+      <c r="L65" s="1">
         <v>1580</v>
       </c>
-      <c r="M65" s="4">
+      <c r="M65" s="1">
         <v>1337</v>
       </c>
-      <c r="N65" s="4">
+      <c r="N65" s="1">
         <v>3370</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="3"/>
-      <c r="B66" s="4" t="s">
+      <c r="A66" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="1">
         <v>2629</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="1">
         <v>2287</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="1">
         <v>1606</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="1">
         <v>1695</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="1">
         <v>1377</v>
       </c>
-      <c r="H66" s="4">
+      <c r="H66" s="1">
         <v>2190</v>
       </c>
-      <c r="I66" s="4">
+      <c r="I66" s="1">
         <v>3067</v>
       </c>
-      <c r="J66" s="4">
+      <c r="J66" s="1">
         <v>1475</v>
       </c>
-      <c r="K66" s="4">
+      <c r="K66" s="1">
         <v>1263</v>
       </c>
-      <c r="L66" s="4">
+      <c r="L66" s="1">
         <v>1548</v>
       </c>
-      <c r="M66" s="4">
+      <c r="M66" s="1">
         <v>1332</v>
       </c>
-      <c r="N66" s="4">
+      <c r="N66" s="1">
         <v>3433</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="3"/>
-      <c r="B67" s="4" t="s">
+      <c r="A67" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="1">
         <v>2768</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="1">
         <v>2346</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="1">
         <v>1690</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="1">
         <v>1783</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="1">
         <v>1427</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H67" s="1">
         <v>2296</v>
       </c>
-      <c r="I67" s="4">
+      <c r="I67" s="1">
         <v>3352</v>
       </c>
-      <c r="J67" s="4">
+      <c r="J67" s="1">
         <v>1578</v>
       </c>
-      <c r="K67" s="4">
+      <c r="K67" s="1">
         <v>1313</v>
       </c>
-      <c r="L67" s="4">
+      <c r="L67" s="1">
         <v>1607</v>
       </c>
-      <c r="M67" s="4">
+      <c r="M67" s="1">
         <v>1375</v>
       </c>
-      <c r="N67" s="4">
+      <c r="N67" s="1">
         <v>3836</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
-      <c r="B68" s="4" t="s">
+      <c r="A68" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="1">
         <v>3090</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="1">
         <v>2589</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="1">
         <v>1702</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="1">
         <v>1873</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="1">
         <v>1438</v>
       </c>
-      <c r="H68" s="4">
+      <c r="H68" s="1">
         <v>2583</v>
       </c>
-      <c r="I68" s="4">
+      <c r="I68" s="1">
         <v>3432</v>
       </c>
-      <c r="J68" s="4">
+      <c r="J68" s="1">
         <v>1613</v>
       </c>
-      <c r="K68" s="4">
+      <c r="K68" s="1">
         <v>1304</v>
       </c>
-      <c r="L68" s="4">
+      <c r="L68" s="1">
         <v>1638</v>
       </c>
-      <c r="M68" s="4">
+      <c r="M68" s="1">
         <v>1378</v>
       </c>
-      <c r="N68" s="4">
+      <c r="N68" s="1">
         <v>4028</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="3"/>
-      <c r="B69" s="4" t="s">
+      <c r="A69" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="1">
         <v>2927</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="1">
         <v>2428</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="1">
         <v>1666</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="1">
         <v>1775</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="1">
         <v>1462</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69" s="1">
         <v>2376</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I69" s="1">
         <v>3119</v>
       </c>
-      <c r="J69" s="4">
+      <c r="J69" s="1">
         <v>1585</v>
       </c>
-      <c r="K69" s="4">
+      <c r="K69" s="1">
         <v>1279</v>
       </c>
-      <c r="L69" s="4">
+      <c r="L69" s="1">
         <v>1649</v>
       </c>
-      <c r="M69" s="4">
+      <c r="M69" s="1">
         <v>1408</v>
       </c>
-      <c r="N69" s="4">
+      <c r="N69" s="1">
         <v>3602</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="3"/>
-      <c r="B70" s="4" t="s">
+      <c r="A70" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="1">
         <v>3359</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="1">
         <v>2849</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="1">
         <v>1842</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="1">
         <v>1991</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="1">
         <v>1527</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H70" s="1">
         <v>2699</v>
       </c>
-      <c r="I70" s="4">
+      <c r="I70" s="1">
         <v>3682</v>
       </c>
-      <c r="J70" s="4">
+      <c r="J70" s="1">
         <v>1741</v>
       </c>
-      <c r="K70" s="4">
+      <c r="K70" s="1">
         <v>1325</v>
       </c>
-      <c r="L70" s="4">
+      <c r="L70" s="1">
         <v>1801</v>
       </c>
-      <c r="M70" s="4">
+      <c r="M70" s="1">
         <v>1491</v>
       </c>
-      <c r="N70" s="4">
+      <c r="N70" s="1">
         <v>4437</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="3"/>
-      <c r="B71" s="4" t="s">
+      <c r="A71" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="1">
         <v>3468</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="1">
         <v>2930</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="1">
         <v>1903</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="1">
         <v>2020</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="1">
         <v>1575</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H71" s="1">
         <v>2773</v>
       </c>
-      <c r="I71" s="4">
+      <c r="I71" s="1">
         <v>3876</v>
       </c>
-      <c r="J71" s="4">
+      <c r="J71" s="1">
         <v>1819</v>
       </c>
-      <c r="K71" s="4">
+      <c r="K71" s="1">
         <v>1362</v>
       </c>
-      <c r="L71" s="4">
+      <c r="L71" s="1">
         <v>1838</v>
       </c>
-      <c r="M71" s="4">
+      <c r="M71" s="1">
         <v>1497</v>
       </c>
-      <c r="N71" s="4">
+      <c r="N71" s="1">
         <v>4520</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="3"/>
-      <c r="B72" s="4" t="s">
+      <c r="A72" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="1">
         <v>3211</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="1">
         <v>2872</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72" s="1">
         <v>1865</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72" s="1">
         <v>2020</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G72" s="1">
         <v>1557</v>
       </c>
-      <c r="H72" s="4">
+      <c r="H72" s="1">
         <v>2776</v>
       </c>
-      <c r="I72" s="4">
+      <c r="I72" s="1">
         <v>3835</v>
       </c>
-      <c r="J72" s="4">
+      <c r="J72" s="1">
         <v>1763</v>
       </c>
-      <c r="K72" s="4">
+      <c r="K72" s="1">
         <v>1362</v>
       </c>
-      <c r="L72" s="4">
+      <c r="L72" s="1">
         <v>1790</v>
       </c>
-      <c r="M72" s="4">
+      <c r="M72" s="1">
         <v>1457</v>
       </c>
-      <c r="N72" s="4">
+      <c r="N72" s="1">
         <v>4519</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3"/>
-      <c r="B73" s="4" t="s">
+      <c r="A73" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="1">
         <v>3685</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="1">
         <v>3070</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="1">
         <v>1935</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F73" s="1">
         <v>2121</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G73" s="1">
         <v>1571</v>
       </c>
-      <c r="H73" s="4">
+      <c r="H73" s="1">
         <v>3032</v>
       </c>
-      <c r="I73" s="4">
+      <c r="I73" s="1">
         <v>4057</v>
       </c>
-      <c r="J73" s="4">
+      <c r="J73" s="1">
         <v>1852</v>
       </c>
-      <c r="K73" s="4">
+      <c r="K73" s="1">
         <v>1360</v>
       </c>
-      <c r="L73" s="4">
+      <c r="L73" s="1">
         <v>1885</v>
       </c>
-      <c r="M73" s="4">
+      <c r="M73" s="1">
         <v>1512</v>
       </c>
-      <c r="N73" s="4">
+      <c r="N73" s="1">
         <v>4755</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="1">
         <v>793</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="1">
         <v>691</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="1">
         <v>622</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F74" s="1">
         <v>499</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G74" s="1">
         <v>444</v>
       </c>
-      <c r="H74" s="4">
+      <c r="H74" s="1">
         <v>656</v>
       </c>
-      <c r="I74" s="4">
+      <c r="I74" s="1">
         <v>1039</v>
       </c>
-      <c r="J74" s="4">
+      <c r="J74" s="1">
         <v>444</v>
       </c>
-      <c r="K74" s="4">
+      <c r="K74" s="1">
         <v>364</v>
       </c>
-      <c r="L74" s="4">
+      <c r="L74" s="1">
         <v>529</v>
       </c>
-      <c r="M74" s="4">
+      <c r="M74" s="1">
         <v>366</v>
       </c>
-      <c r="N74" s="4">
+      <c r="N74" s="1">
         <v>1024</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="3"/>
-      <c r="B75" s="4" t="s">
+      <c r="A75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="1">
         <v>827</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="1">
         <v>717</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="1">
         <v>668</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="1">
         <v>507</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G75" s="1">
         <v>471</v>
       </c>
-      <c r="H75" s="4">
+      <c r="H75" s="1">
         <v>639</v>
       </c>
-      <c r="I75" s="4">
+      <c r="I75" s="1">
         <v>1049</v>
       </c>
-      <c r="J75" s="4">
+      <c r="J75" s="1">
         <v>438</v>
       </c>
-      <c r="K75" s="4">
+      <c r="K75" s="1">
         <v>355</v>
       </c>
-      <c r="L75" s="4">
+      <c r="L75" s="1">
         <v>567</v>
       </c>
-      <c r="M75" s="4">
+      <c r="M75" s="1">
         <v>385</v>
       </c>
-      <c r="N75" s="4">
+      <c r="N75" s="1">
         <v>1046</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="3"/>
-      <c r="B76" s="4" t="s">
+      <c r="A76" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="1">
         <v>849</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="1">
         <v>672</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76" s="1">
         <v>697</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76" s="1">
         <v>534</v>
       </c>
-      <c r="G76" s="4">
+      <c r="G76" s="1">
         <v>460</v>
       </c>
-      <c r="H76" s="4">
+      <c r="H76" s="1">
         <v>708</v>
       </c>
-      <c r="I76" s="4">
+      <c r="I76" s="1">
         <v>1128</v>
       </c>
-      <c r="J76" s="4">
+      <c r="J76" s="1">
         <v>500</v>
       </c>
-      <c r="K76" s="4">
+      <c r="K76" s="1">
         <v>383</v>
       </c>
-      <c r="L76" s="4">
+      <c r="L76" s="1">
         <v>556</v>
       </c>
-      <c r="M76" s="4">
+      <c r="M76" s="1">
         <v>389</v>
       </c>
-      <c r="N76" s="4">
+      <c r="N76" s="1">
         <v>1032</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="3"/>
-      <c r="B77" s="4" t="s">
+      <c r="A77" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="1">
         <v>843</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="1">
         <v>707</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E77" s="1">
         <v>651</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F77" s="1">
         <v>554</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G77" s="1">
         <v>461</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H77" s="1">
         <v>644</v>
       </c>
-      <c r="I77" s="4">
+      <c r="I77" s="1">
         <v>1118</v>
       </c>
-      <c r="J77" s="4">
+      <c r="J77" s="1">
         <v>479</v>
       </c>
-      <c r="K77" s="4">
+      <c r="K77" s="1">
         <v>376</v>
       </c>
-      <c r="L77" s="4">
+      <c r="L77" s="1">
         <v>587</v>
       </c>
-      <c r="M77" s="4">
+      <c r="M77" s="1">
         <v>389</v>
       </c>
-      <c r="N77" s="4">
+      <c r="N77" s="1">
         <v>1029</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="3"/>
-      <c r="B78" s="4" t="s">
+      <c r="A78" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="1">
         <v>847</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="1">
         <v>769</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E78" s="1">
         <v>610</v>
       </c>
-      <c r="F78" s="4">
+      <c r="F78" s="1">
         <v>563</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G78" s="1">
         <v>449</v>
       </c>
-      <c r="H78" s="4">
+      <c r="H78" s="1">
         <v>693</v>
       </c>
-      <c r="I78" s="4">
+      <c r="I78" s="1">
         <v>1133</v>
       </c>
-      <c r="J78" s="4">
+      <c r="J78" s="1">
         <v>527</v>
       </c>
-      <c r="K78" s="4">
+      <c r="K78" s="1">
         <v>382</v>
       </c>
-      <c r="L78" s="4">
+      <c r="L78" s="1">
         <v>551</v>
       </c>
-      <c r="M78" s="4">
+      <c r="M78" s="1">
         <v>376</v>
       </c>
-      <c r="N78" s="4">
+      <c r="N78" s="1">
         <v>1082</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="3"/>
-      <c r="B79" s="4" t="s">
+      <c r="A79" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="1">
         <v>851</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="1">
         <v>748</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="1">
         <v>601</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F79" s="1">
         <v>530</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G79" s="1">
         <v>415</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H79" s="1">
         <v>657</v>
       </c>
-      <c r="I79" s="4">
+      <c r="I79" s="1">
         <v>1083</v>
       </c>
-      <c r="J79" s="4">
+      <c r="J79" s="1">
         <v>478</v>
       </c>
-      <c r="K79" s="4">
+      <c r="K79" s="1">
         <v>367</v>
       </c>
-      <c r="L79" s="4">
+      <c r="L79" s="1">
         <v>532</v>
       </c>
-      <c r="M79" s="4">
+      <c r="M79" s="1">
         <v>391</v>
       </c>
-      <c r="N79" s="4">
+      <c r="N79" s="1">
         <v>1077</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="3"/>
-      <c r="B80" s="4" t="s">
+      <c r="A80" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="1">
         <v>821</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="1">
         <v>688</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="1">
         <v>563</v>
       </c>
-      <c r="F80" s="4">
+      <c r="F80" s="1">
         <v>512</v>
       </c>
-      <c r="G80" s="4">
+      <c r="G80" s="1">
         <v>420</v>
       </c>
-      <c r="H80" s="4">
+      <c r="H80" s="1">
         <v>661</v>
       </c>
-      <c r="I80" s="4">
+      <c r="I80" s="1">
         <v>1079</v>
       </c>
-      <c r="J80" s="4">
+      <c r="J80" s="1">
         <v>452</v>
       </c>
-      <c r="K80" s="4">
+      <c r="K80" s="1">
         <v>364</v>
       </c>
-      <c r="L80" s="4">
+      <c r="L80" s="1">
         <v>572</v>
       </c>
-      <c r="M80" s="4">
+      <c r="M80" s="1">
         <v>383</v>
       </c>
-      <c r="N80" s="4">
+      <c r="N80" s="1">
         <v>973</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="3"/>
-      <c r="B81" s="4" t="s">
+      <c r="A81" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="1">
         <v>833</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="1">
         <v>753</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="1">
         <v>605</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F81" s="1">
         <v>513</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G81" s="1">
         <v>437</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H81" s="1">
         <v>668</v>
       </c>
-      <c r="I81" s="4">
+      <c r="I81" s="1">
         <v>1147</v>
       </c>
-      <c r="J81" s="4">
+      <c r="J81" s="1">
         <v>465</v>
       </c>
-      <c r="K81" s="4">
+      <c r="K81" s="1">
         <v>366</v>
       </c>
-      <c r="L81" s="4">
+      <c r="L81" s="1">
         <v>540</v>
       </c>
-      <c r="M81" s="4">
+      <c r="M81" s="1">
         <v>384</v>
       </c>
-      <c r="N81" s="4">
+      <c r="N81" s="1">
         <v>1036</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="3"/>
-      <c r="B82" s="4" t="s">
+      <c r="A82" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="1">
         <v>963</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="1">
         <v>779</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E82" s="1">
         <v>616</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F82" s="1">
         <v>557</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G82" s="1">
         <v>439</v>
       </c>
-      <c r="H82" s="4">
+      <c r="H82" s="1">
         <v>725</v>
       </c>
-      <c r="I82" s="4">
+      <c r="I82" s="1">
         <v>1229</v>
       </c>
-      <c r="J82" s="4">
+      <c r="J82" s="1">
         <v>519</v>
       </c>
-      <c r="K82" s="4">
+      <c r="K82" s="1">
         <v>370</v>
       </c>
-      <c r="L82" s="4">
+      <c r="L82" s="1">
         <v>555</v>
       </c>
-      <c r="M82" s="4">
+      <c r="M82" s="1">
         <v>405</v>
       </c>
-      <c r="N82" s="4">
+      <c r="N82" s="1">
         <v>1216</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="3"/>
-      <c r="B83" s="4" t="s">
+      <c r="A83" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="1">
         <v>1012</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="1">
         <v>850</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="1">
         <v>613</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F83" s="1">
         <v>575</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G83" s="1">
         <v>424</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H83" s="1">
         <v>746</v>
       </c>
-      <c r="I83" s="4">
+      <c r="I83" s="1">
         <v>1357</v>
       </c>
-      <c r="J83" s="4">
+      <c r="J83" s="1">
         <v>520</v>
       </c>
-      <c r="K83" s="4">
+      <c r="K83" s="1">
         <v>374</v>
       </c>
-      <c r="L83" s="4">
+      <c r="L83" s="1">
         <v>562</v>
       </c>
-      <c r="M83" s="4">
+      <c r="M83" s="1">
         <v>390</v>
       </c>
-      <c r="N83" s="4">
+      <c r="N83" s="1">
         <v>1250</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="3"/>
-      <c r="B84" s="4" t="s">
+      <c r="A84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="1">
         <v>1052</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="1">
         <v>925</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84" s="1">
         <v>601</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F84" s="1">
         <v>576</v>
       </c>
-      <c r="G84" s="4">
+      <c r="G84" s="1">
         <v>435</v>
       </c>
-      <c r="H84" s="4">
+      <c r="H84" s="1">
         <v>790</v>
       </c>
-      <c r="I84" s="4">
+      <c r="I84" s="1">
         <v>1366</v>
       </c>
-      <c r="J84" s="4">
+      <c r="J84" s="1">
         <v>516</v>
       </c>
-      <c r="K84" s="4">
+      <c r="K84" s="1">
         <v>367</v>
       </c>
-      <c r="L84" s="4">
+      <c r="L84" s="1">
         <v>566</v>
       </c>
-      <c r="M84" s="4">
+      <c r="M84" s="1">
         <v>374</v>
       </c>
-      <c r="N84" s="4">
+      <c r="N84" s="1">
         <v>1275</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="3"/>
-      <c r="B85" s="4" t="s">
+      <c r="A85" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="1">
         <v>1046</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="1">
         <v>910</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E85" s="1">
         <v>594</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F85" s="1">
         <v>637</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G85" s="1">
         <v>443</v>
       </c>
-      <c r="H85" s="4">
+      <c r="H85" s="1">
         <v>879</v>
       </c>
-      <c r="I85" s="4">
+      <c r="I85" s="1">
         <v>1422</v>
       </c>
-      <c r="J85" s="4">
+      <c r="J85" s="1">
         <v>507</v>
       </c>
-      <c r="K85" s="4">
+      <c r="K85" s="1">
         <v>383</v>
       </c>
-      <c r="L85" s="4">
+      <c r="L85" s="1">
         <v>594</v>
       </c>
-      <c r="M85" s="4">
+      <c r="M85" s="1">
         <v>405</v>
       </c>
-      <c r="N85" s="4">
+      <c r="N85" s="1">
         <v>1299</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="3"/>
-      <c r="B86" s="4" t="s">
+      <c r="A86" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="1">
         <v>1060</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="1">
         <v>925</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86" s="1">
         <v>619</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F86" s="1">
         <v>598</v>
       </c>
-      <c r="G86" s="4">
+      <c r="G86" s="1">
         <v>445</v>
       </c>
-      <c r="H86" s="4">
+      <c r="H86" s="1">
         <v>845</v>
       </c>
-      <c r="I86" s="4">
+      <c r="I86" s="1">
         <v>1448</v>
       </c>
-      <c r="J86" s="4">
+      <c r="J86" s="1">
         <v>493</v>
       </c>
-      <c r="K86" s="4">
+      <c r="K86" s="1">
         <v>379</v>
       </c>
-      <c r="L86" s="4">
+      <c r="L86" s="1">
         <v>569</v>
       </c>
-      <c r="M86" s="4">
+      <c r="M86" s="1">
         <v>407</v>
       </c>
-      <c r="N86" s="4">
+      <c r="N86" s="1">
         <v>1426</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="3"/>
-      <c r="B87" s="4" t="s">
+      <c r="A87" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="1">
         <v>1211</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="1">
         <v>990</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87" s="1">
         <v>632</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F87" s="1">
         <v>663</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G87" s="1">
         <v>460</v>
       </c>
-      <c r="H87" s="4">
+      <c r="H87" s="1">
         <v>885</v>
       </c>
-      <c r="I87" s="4">
+      <c r="I87" s="1">
         <v>1467</v>
       </c>
-      <c r="J87" s="4">
+      <c r="J87" s="1">
         <v>513</v>
       </c>
-      <c r="K87" s="4">
+      <c r="K87" s="1">
         <v>371</v>
       </c>
-      <c r="L87" s="4">
+      <c r="L87" s="1">
         <v>621</v>
       </c>
-      <c r="M87" s="4">
+      <c r="M87" s="1">
         <v>418</v>
       </c>
-      <c r="N87" s="4">
+      <c r="N87" s="1">
         <v>1463</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="3"/>
-      <c r="B88" s="4" t="s">
+      <c r="A88" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="1">
         <v>1248</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="1">
         <v>986</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88" s="1">
         <v>660</v>
       </c>
-      <c r="F88" s="4">
+      <c r="F88" s="1">
         <v>715</v>
       </c>
-      <c r="G88" s="4">
+      <c r="G88" s="1">
         <v>449</v>
       </c>
-      <c r="H88" s="4">
+      <c r="H88" s="1">
         <v>891</v>
       </c>
-      <c r="I88" s="4">
+      <c r="I88" s="1">
         <v>1576</v>
       </c>
-      <c r="J88" s="4">
+      <c r="J88" s="1">
         <v>501</v>
       </c>
-      <c r="K88" s="4">
+      <c r="K88" s="1">
         <v>361</v>
       </c>
-      <c r="L88" s="4">
+      <c r="L88" s="1">
         <v>622</v>
       </c>
-      <c r="M88" s="4">
+      <c r="M88" s="1">
         <v>403</v>
       </c>
-      <c r="N88" s="4">
+      <c r="N88" s="1">
         <v>1460</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="3"/>
-      <c r="B89" s="4" t="s">
+      <c r="A89" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="1">
         <v>1208</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D89" s="1">
         <v>980</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E89" s="1">
         <v>579</v>
       </c>
-      <c r="F89" s="4">
+      <c r="F89" s="1">
         <v>644</v>
       </c>
-      <c r="G89" s="4">
+      <c r="G89" s="1">
         <v>450</v>
       </c>
-      <c r="H89" s="4">
+      <c r="H89" s="1">
         <v>873</v>
       </c>
-      <c r="I89" s="4">
+      <c r="I89" s="1">
         <v>1491</v>
       </c>
-      <c r="J89" s="4">
+      <c r="J89" s="1">
         <v>486</v>
       </c>
-      <c r="K89" s="4">
+      <c r="K89" s="1">
         <v>368</v>
       </c>
-      <c r="L89" s="4">
+      <c r="L89" s="1">
         <v>598</v>
       </c>
-      <c r="M89" s="4">
+      <c r="M89" s="1">
         <v>414</v>
       </c>
-      <c r="N89" s="4">
+      <c r="N89" s="1">
         <v>1407</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="3"/>
-      <c r="B90" s="4" t="s">
+      <c r="A90" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="1">
         <v>1209</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90" s="1">
         <v>981</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E90" s="1">
         <v>659</v>
       </c>
-      <c r="F90" s="4">
+      <c r="F90" s="1">
         <v>705</v>
       </c>
-      <c r="G90" s="4">
+      <c r="G90" s="1">
         <v>457</v>
       </c>
-      <c r="H90" s="4">
+      <c r="H90" s="1">
         <v>1020</v>
       </c>
-      <c r="I90" s="4">
+      <c r="I90" s="1">
         <v>1564</v>
       </c>
-      <c r="J90" s="4">
+      <c r="J90" s="1">
         <v>500</v>
       </c>
-      <c r="K90" s="4">
+      <c r="K90" s="1">
         <v>366</v>
       </c>
-      <c r="L90" s="4">
+      <c r="L90" s="1">
         <v>603</v>
       </c>
-      <c r="M90" s="4">
+      <c r="M90" s="1">
         <v>397</v>
       </c>
-      <c r="N90" s="4">
+      <c r="N90" s="1">
         <v>1501</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="3"/>
-      <c r="B91" s="4" t="s">
+      <c r="A91" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="1">
         <v>1411</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="1">
         <v>1060</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="1">
         <v>725</v>
       </c>
-      <c r="F91" s="4">
+      <c r="F91" s="1">
         <v>748</v>
       </c>
-      <c r="G91" s="4">
+      <c r="G91" s="1">
         <v>484</v>
       </c>
-      <c r="H91" s="4">
+      <c r="H91" s="1">
         <v>1017</v>
       </c>
-      <c r="I91" s="4">
+      <c r="I91" s="1">
         <v>1728</v>
       </c>
-      <c r="J91" s="4">
+      <c r="J91" s="1">
         <v>551</v>
       </c>
-      <c r="K91" s="4">
+      <c r="K91" s="1">
         <v>375</v>
       </c>
-      <c r="L91" s="4">
+      <c r="L91" s="1">
         <v>628</v>
       </c>
-      <c r="M91" s="4">
+      <c r="M91" s="1">
         <v>412</v>
       </c>
-      <c r="N91" s="4">
+      <c r="N91" s="1">
         <v>1642</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="3"/>
-      <c r="B92" s="4" t="s">
+      <c r="A92" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="1">
         <v>1610</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D92" s="1">
         <v>1158</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E92" s="1">
         <v>768</v>
       </c>
-      <c r="F92" s="4">
+      <c r="F92" s="1">
         <v>819</v>
       </c>
-      <c r="G92" s="4">
+      <c r="G92" s="1">
         <v>485</v>
       </c>
-      <c r="H92" s="4">
+      <c r="H92" s="1">
         <v>1192</v>
       </c>
-      <c r="I92" s="4">
+      <c r="I92" s="1">
         <v>1980</v>
       </c>
-      <c r="J92" s="4">
+      <c r="J92" s="1">
         <v>603</v>
       </c>
-      <c r="K92" s="4">
+      <c r="K92" s="1">
         <v>398</v>
       </c>
-      <c r="L92" s="4">
+      <c r="L92" s="1">
         <v>671</v>
       </c>
-      <c r="M92" s="4">
+      <c r="M92" s="1">
         <v>466</v>
       </c>
-      <c r="N92" s="4">
+      <c r="N92" s="1">
         <v>1903</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="3"/>
-      <c r="B93" s="4" t="s">
+      <c r="A93" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="1">
         <v>1360</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93" s="1">
         <v>1084</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E93" s="1">
         <v>708</v>
       </c>
-      <c r="F93" s="4">
+      <c r="F93" s="1">
         <v>705</v>
       </c>
-      <c r="G93" s="4">
+      <c r="G93" s="1">
         <v>486</v>
       </c>
-      <c r="H93" s="4">
+      <c r="H93" s="1">
         <v>1091</v>
       </c>
-      <c r="I93" s="4">
+      <c r="I93" s="1">
         <v>1719</v>
       </c>
-      <c r="J93" s="4">
+      <c r="J93" s="1">
         <v>564</v>
       </c>
-      <c r="K93" s="4">
+      <c r="K93" s="1">
         <v>369</v>
       </c>
-      <c r="L93" s="4">
+      <c r="L93" s="1">
         <v>650</v>
       </c>
-      <c r="M93" s="4">
+      <c r="M93" s="1">
         <v>434</v>
       </c>
-      <c r="N93" s="4">
+      <c r="N93" s="1">
         <v>1698</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="3"/>
-      <c r="B94" s="4" t="s">
+      <c r="A94" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="1">
         <v>1776</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94" s="1">
         <v>1422</v>
       </c>
-      <c r="E94" s="4">
+      <c r="E94" s="1">
         <v>878</v>
       </c>
-      <c r="F94" s="4">
+      <c r="F94" s="1">
         <v>889</v>
       </c>
-      <c r="G94" s="4">
+      <c r="G94" s="1">
         <v>537</v>
       </c>
-      <c r="H94" s="4">
+      <c r="H94" s="1">
         <v>1310</v>
       </c>
-      <c r="I94" s="4">
+      <c r="I94" s="1">
         <v>2152</v>
       </c>
-      <c r="J94" s="4">
+      <c r="J94" s="1">
         <v>674</v>
       </c>
-      <c r="K94" s="4">
+      <c r="K94" s="1">
         <v>406</v>
       </c>
-      <c r="L94" s="4">
+      <c r="L94" s="1">
         <v>800</v>
       </c>
-      <c r="M94" s="4">
+      <c r="M94" s="1">
         <v>489</v>
       </c>
-      <c r="N94" s="4">
+      <c r="N94" s="1">
         <v>2047</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="3"/>
-      <c r="B95" s="4" t="s">
+      <c r="A95" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="1">
         <v>1805</v>
       </c>
-      <c r="D95" s="4">
+      <c r="D95" s="1">
         <v>1457</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E95" s="1">
         <v>910</v>
       </c>
-      <c r="F95" s="4">
+      <c r="F95" s="1">
         <v>920</v>
       </c>
-      <c r="G95" s="4">
+      <c r="G95" s="1">
         <v>588</v>
       </c>
-      <c r="H95" s="4">
+      <c r="H95" s="1">
         <v>1317</v>
       </c>
-      <c r="I95" s="4">
+      <c r="I95" s="1">
         <v>2249</v>
       </c>
-      <c r="J95" s="4">
+      <c r="J95" s="1">
         <v>716</v>
       </c>
-      <c r="K95" s="4">
+      <c r="K95" s="1">
         <v>415</v>
       </c>
-      <c r="L95" s="4">
+      <c r="L95" s="1">
         <v>817</v>
       </c>
-      <c r="M95" s="4">
+      <c r="M95" s="1">
         <v>483</v>
       </c>
-      <c r="N95" s="4">
+      <c r="N95" s="1">
         <v>2160</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="3"/>
-      <c r="B96" s="4" t="s">
+      <c r="A96" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="1">
         <v>1602</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D96" s="1">
         <v>1364</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E96" s="1">
         <v>842</v>
       </c>
-      <c r="F96" s="4">
+      <c r="F96" s="1">
         <v>858</v>
       </c>
-      <c r="G96" s="4">
+      <c r="G96" s="1">
         <v>579</v>
       </c>
-      <c r="H96" s="4">
+      <c r="H96" s="1">
         <v>1292</v>
       </c>
-      <c r="I96" s="4">
+      <c r="I96" s="1">
         <v>2147</v>
       </c>
-      <c r="J96" s="4">
+      <c r="J96" s="1">
         <v>638</v>
       </c>
-      <c r="K96" s="4">
+      <c r="K96" s="1">
         <v>409</v>
       </c>
-      <c r="L96" s="4">
+      <c r="L96" s="1">
         <v>771</v>
       </c>
-      <c r="M96" s="4">
+      <c r="M96" s="1">
         <v>448</v>
       </c>
-      <c r="N96" s="4">
+      <c r="N96" s="1">
         <v>2010</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="3"/>
-      <c r="B97" s="4" t="s">
+      <c r="A97" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="1">
         <v>1823</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D97" s="1">
         <v>1452</v>
       </c>
-      <c r="E97" s="4">
+      <c r="E97" s="1">
         <v>855</v>
       </c>
-      <c r="F97" s="4">
+      <c r="F97" s="1">
         <v>919</v>
       </c>
-      <c r="G97" s="4">
+      <c r="G97" s="1">
         <v>554</v>
       </c>
-      <c r="H97" s="4">
+      <c r="H97" s="1">
         <v>1333</v>
       </c>
-      <c r="I97" s="4">
+      <c r="I97" s="1">
         <v>2206</v>
       </c>
-      <c r="J97" s="4">
+      <c r="J97" s="1">
         <v>736</v>
       </c>
-      <c r="K97" s="4">
+      <c r="K97" s="1">
         <v>435</v>
       </c>
-      <c r="L97" s="4">
+      <c r="L97" s="1">
         <v>812</v>
       </c>
-      <c r="M97" s="4">
+      <c r="M97" s="1">
         <v>495</v>
       </c>
-      <c r="N97" s="4">
+      <c r="N97" s="1">
         <v>2081</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A26:A49"/>
-    <mergeCell ref="A50:A73"/>
-    <mergeCell ref="A74:A97"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Belge" ma:contentTypeID="0x010100BBBA11C3445C8B4C9C44B67C5CCEBFA8" ma:contentTypeVersion="4" ma:contentTypeDescription="Yeni belge oluşturun." ma:contentTypeScope="" ma:versionID="39d1c8070fee37e38006f7a0b231d386">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3ccf06f8-7942-444b-ba37-cf51e6f5a1ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6b94edf5178a490930a641671211d18" ns3:_="">
     <xsd:import namespace="3ccf06f8-7942-444b-ba37-cf51e6f5a1ca"/>
@@ -11533,15 +12175,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -11549,6 +12182,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C33213C6-9835-4399-9BDB-936757F8796C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC7EBE14-9F3C-486C-9989-29F9185D5A5D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11562,14 +12203,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C33213C6-9835-4399-9BDB-936757F8796C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
